--- a/Ante Proyecto/Tesis indicador de versiones.xlsx
+++ b/Ante Proyecto/Tesis indicador de versiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luda_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMG TECNOLOGIA\Documents\Tesis\Tesis-\Ante Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7D190-59BA-4198-832F-C302FA71C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2767AECA-96BD-4B3A-B7E0-BF55D842F4A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Versiones documentos" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Protocolo" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>TABLA DE ORGANIZACIÓN DE INFORMACION DE TESIS</t>
   </si>
@@ -167,13 +166,22 @@
   </si>
   <si>
     <t>Parametros normales segiun literatura</t>
+  </si>
+  <si>
+    <t>Resistencia al impacto</t>
+  </si>
+  <si>
+    <t>ASTM 256</t>
+  </si>
+  <si>
+    <t>resistencia al impacto en plásticossegun metodo Izod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,23 +269,23 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,585 +629,585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090F1D9C-ED9C-4B25-9EE9-9ECCBE20D464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="B20" s="5" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="27.75">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" ht="26" x14ac:dyDescent="0.6">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="2:14" ht="26.25">
       <c r="B37" s="7" t="s">
         <v>20</v>
       </c>
@@ -1218,6 +1226,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I33:N36"/>
+    <mergeCell ref="B21:C36"/>
+    <mergeCell ref="D21:E36"/>
+    <mergeCell ref="F21:H36"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="I21:N24"/>
+    <mergeCell ref="I25:N28"/>
+    <mergeCell ref="I29:N32"/>
     <mergeCell ref="B2:N4"/>
     <mergeCell ref="I8:N11"/>
     <mergeCell ref="I12:N15"/>
@@ -1230,14 +1246,6 @@
     <mergeCell ref="B8:C19"/>
     <mergeCell ref="D8:E19"/>
     <mergeCell ref="F8:H19"/>
-    <mergeCell ref="I33:N36"/>
-    <mergeCell ref="B21:C36"/>
-    <mergeCell ref="D21:E36"/>
-    <mergeCell ref="F21:H36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="I21:N24"/>
-    <mergeCell ref="I25:N28"/>
-    <mergeCell ref="I29:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1245,78 +1253,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C362F7-5D2C-403A-B35E-0A1E8AC44345}">
-  <dimension ref="B3:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G32" sqref="G32:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1326,63 +1334,63 @@
         <v>31</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11">
       <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1392,63 +1400,63 @@
         <v>32</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11">
       <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
@@ -1458,63 +1466,63 @@
         <v>33</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11">
       <c r="B22" s="9" t="s">
         <v>29</v>
       </c>
@@ -1532,7 +1540,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1544,7 +1552,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1556,7 +1564,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1568,7 +1576,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1580,7 +1588,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11">
       <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
@@ -1590,64 +1598,143 @@
         <v>35</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
+    <mergeCell ref="B32:D36"/>
+    <mergeCell ref="E32:F36"/>
+    <mergeCell ref="G32:I36"/>
+    <mergeCell ref="J32:K36"/>
+    <mergeCell ref="G7:I11"/>
+    <mergeCell ref="B12:D16"/>
+    <mergeCell ref="E12:F16"/>
+    <mergeCell ref="G12:I16"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:K6"/>
     <mergeCell ref="B27:D31"/>
     <mergeCell ref="E27:F31"/>
     <mergeCell ref="G27:I31"/>
@@ -1664,36 +1751,28 @@
     <mergeCell ref="G22:I26"/>
     <mergeCell ref="B7:D11"/>
     <mergeCell ref="E7:F11"/>
-    <mergeCell ref="G7:I11"/>
-    <mergeCell ref="B12:D16"/>
-    <mergeCell ref="E12:F16"/>
-    <mergeCell ref="G12:I16"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7951A4D-EFAE-4248-BF90-B6E4E33047E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="F6" t="s">
         <v>25</v>
       </c>
@@ -1704,38 +1783,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0816D35-BD27-4E5D-B89B-A161B97C2145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C508204-6FAA-4AC2-AB64-B503A6EF1254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EB734E-876A-421A-AA50-523CFB55F399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ante Proyecto/Tesis indicador de versiones.xlsx
+++ b/Ante Proyecto/Tesis indicador de versiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Versiones documentos" sheetId="1" r:id="rId1"/>
@@ -269,20 +269,8 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,6 +279,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -645,595 +645,587 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" ht="27.75">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="3" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="3" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="2:14" ht="26.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I33:N36"/>
-    <mergeCell ref="B21:C36"/>
-    <mergeCell ref="D21:E36"/>
-    <mergeCell ref="F21:H36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="I21:N24"/>
-    <mergeCell ref="I25:N28"/>
-    <mergeCell ref="I29:N32"/>
     <mergeCell ref="B2:N4"/>
     <mergeCell ref="I8:N11"/>
     <mergeCell ref="I12:N15"/>
@@ -1246,6 +1238,14 @@
     <mergeCell ref="B8:C19"/>
     <mergeCell ref="D8:E19"/>
     <mergeCell ref="F8:H19"/>
+    <mergeCell ref="I33:N36"/>
+    <mergeCell ref="B21:C36"/>
+    <mergeCell ref="D21:E36"/>
+    <mergeCell ref="F21:H36"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="I21:N24"/>
+    <mergeCell ref="I25:N28"/>
+    <mergeCell ref="I29:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
       <selection activeCell="G32" sqref="G32:I36"/>
     </sheetView>
   </sheetViews>
@@ -1267,62 +1267,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
@@ -1334,11 +1334,11 @@
         <v>31</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -1348,9 +1348,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -1360,9 +1360,9 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
@@ -1372,9 +1372,9 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -1384,9 +1384,9 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
@@ -1400,11 +1400,11 @@
         <v>32</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
@@ -1414,9 +1414,9 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
@@ -1426,9 +1426,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
@@ -1438,9 +1438,9 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
@@ -1450,9 +1450,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
@@ -1466,11 +1466,11 @@
         <v>33</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
@@ -1480,9 +1480,9 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
@@ -1492,9 +1492,9 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
@@ -1504,9 +1504,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
@@ -1516,9 +1516,9 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
@@ -1598,11 +1598,11 @@
         <v>35</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
@@ -1612,9 +1612,9 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
@@ -1624,9 +1624,9 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
@@ -1636,9 +1636,9 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
@@ -1648,9 +1648,9 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
@@ -1664,11 +1664,11 @@
         <v>43</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
@@ -1678,9 +1678,9 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
@@ -1690,9 +1690,9 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
@@ -1702,9 +1702,9 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
@@ -1714,14 +1714,27 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:D11"/>
+    <mergeCell ref="E7:F11"/>
+    <mergeCell ref="B17:D21"/>
+    <mergeCell ref="E17:F21"/>
+    <mergeCell ref="G17:I21"/>
+    <mergeCell ref="B22:D26"/>
+    <mergeCell ref="E22:F26"/>
+    <mergeCell ref="G22:I26"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:K6"/>
     <mergeCell ref="B32:D36"/>
     <mergeCell ref="E32:F36"/>
     <mergeCell ref="G32:I36"/>
@@ -1730,11 +1743,6 @@
     <mergeCell ref="B12:D16"/>
     <mergeCell ref="E12:F16"/>
     <mergeCell ref="G12:I16"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:K6"/>
     <mergeCell ref="B27:D31"/>
     <mergeCell ref="E27:F31"/>
     <mergeCell ref="G27:I31"/>
@@ -1743,14 +1751,6 @@
     <mergeCell ref="J17:K21"/>
     <mergeCell ref="J22:K26"/>
     <mergeCell ref="J27:K31"/>
-    <mergeCell ref="B17:D21"/>
-    <mergeCell ref="E17:F21"/>
-    <mergeCell ref="G17:I21"/>
-    <mergeCell ref="B22:D26"/>
-    <mergeCell ref="E22:F26"/>
-    <mergeCell ref="G22:I26"/>
-    <mergeCell ref="B7:D11"/>
-    <mergeCell ref="E7:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ante Proyecto/Tesis indicador de versiones.xlsx
+++ b/Ante Proyecto/Tesis indicador de versiones.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TABLA DE ORGANIZACIÓN DE INFORMACION DE TESIS</t>
   </si>
@@ -175,13 +175,19 @@
   </si>
   <si>
     <t>resistencia al impacto en plásticossegun metodo Izod</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Evaluación de la Biocompatibilidad y el Rendimiento Mecánico de Alineadores Ortodónticos Monocapa (PET-G) y Tricapa (PU-Copolímero) en Contacto con Tejidos Orales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +226,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,10 +280,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,19 +307,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N37"/>
+  <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -645,587 +664,737 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27.75">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="2:14" ht="26.25">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="B39:C53"/>
+    <mergeCell ref="D39:E53"/>
+    <mergeCell ref="F39:H53"/>
+    <mergeCell ref="I33:N36"/>
+    <mergeCell ref="B21:C36"/>
+    <mergeCell ref="D21:E36"/>
+    <mergeCell ref="F21:H36"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="I21:N24"/>
+    <mergeCell ref="I25:N28"/>
+    <mergeCell ref="I29:N32"/>
     <mergeCell ref="B2:N4"/>
     <mergeCell ref="I8:N11"/>
     <mergeCell ref="I12:N15"/>
@@ -1238,14 +1407,6 @@
     <mergeCell ref="B8:C19"/>
     <mergeCell ref="D8:E19"/>
     <mergeCell ref="F8:H19"/>
-    <mergeCell ref="I33:N36"/>
-    <mergeCell ref="B21:C36"/>
-    <mergeCell ref="D21:E36"/>
-    <mergeCell ref="F21:H36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="I21:N24"/>
-    <mergeCell ref="I25:N28"/>
-    <mergeCell ref="I29:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1267,62 +1428,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
@@ -1334,11 +1495,11 @@
         <v>31</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -1348,9 +1509,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -1360,9 +1521,9 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
@@ -1372,9 +1533,9 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -1384,9 +1545,9 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
@@ -1400,11 +1561,11 @@
         <v>32</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
@@ -1414,9 +1575,9 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
@@ -1426,9 +1587,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
@@ -1438,9 +1599,9 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
@@ -1450,9 +1611,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
@@ -1466,11 +1627,11 @@
         <v>33</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
@@ -1480,9 +1641,9 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
@@ -1492,9 +1653,9 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
@@ -1504,9 +1665,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
@@ -1516,9 +1677,9 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
@@ -1598,11 +1759,11 @@
         <v>35</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
@@ -1612,9 +1773,9 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
@@ -1624,9 +1785,9 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
@@ -1636,9 +1797,9 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
@@ -1648,9 +1809,9 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
@@ -1664,11 +1825,11 @@
         <v>43</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
@@ -1678,9 +1839,9 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
@@ -1690,9 +1851,9 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
@@ -1702,9 +1863,9 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
@@ -1714,27 +1875,14 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B7:D11"/>
-    <mergeCell ref="E7:F11"/>
-    <mergeCell ref="B17:D21"/>
-    <mergeCell ref="E17:F21"/>
-    <mergeCell ref="G17:I21"/>
-    <mergeCell ref="B22:D26"/>
-    <mergeCell ref="E22:F26"/>
-    <mergeCell ref="G22:I26"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:K6"/>
     <mergeCell ref="B32:D36"/>
     <mergeCell ref="E32:F36"/>
     <mergeCell ref="G32:I36"/>
@@ -1751,6 +1899,19 @@
     <mergeCell ref="J17:K21"/>
     <mergeCell ref="J22:K26"/>
     <mergeCell ref="J27:K31"/>
+    <mergeCell ref="B22:D26"/>
+    <mergeCell ref="E22:F26"/>
+    <mergeCell ref="G22:I26"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="B7:D11"/>
+    <mergeCell ref="E7:F11"/>
+    <mergeCell ref="B17:D21"/>
+    <mergeCell ref="E17:F21"/>
+    <mergeCell ref="G17:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ante Proyecto/Tesis indicador de versiones.xlsx
+++ b/Ante Proyecto/Tesis indicador de versiones.xlsx
@@ -177,10 +177,10 @@
     <t>resistencia al impacto en plásticossegun metodo Izod</t>
   </si>
   <si>
-    <t>Version 3</t>
-  </si>
-  <si>
-    <t>Evaluación de la Biocompatibilidad y el Rendimiento Mecánico de Alineadores Ortodónticos Monocapa (PET-G) y Tricapa (PU-Copolímero) en Contacto con Tejidos Orales</t>
+    <t>Evaluar el comportamiento biomecánico y la integridad estructural de alineadores de PET-G y PU-Copolímero, analizando el impacto del post-termoformado y el microambiente intraoral en su capacidad de transferencia de fuerzas terapéuticas.</t>
+  </si>
+  <si>
+    <t>Version 3: reunion carlos y cristian (9:30pm)</t>
   </si>
 </sst>
 </file>
@@ -282,20 +282,14 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,13 +301,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -664,104 +664,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="3" t="s">
@@ -777,14 +777,14 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="3"/>
@@ -794,12 +794,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3"/>
@@ -809,12 +809,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="3"/>
@@ -824,12 +824,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="3"/>
@@ -956,98 +956,98 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27.75">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1058,13 +1058,13 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1073,13 +1073,13 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1088,13 +1088,13 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1103,13 +1103,13 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1120,13 +1120,13 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1135,13 +1135,13 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1150,13 +1150,13 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1165,13 +1165,13 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
         <v>18</v>
       </c>
@@ -1182,13 +1182,13 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1197,13 +1197,13 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1212,13 +1212,13 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1227,174 +1227,163 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="2:14" ht="26.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="39" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:C53"/>
-    <mergeCell ref="D39:E53"/>
-    <mergeCell ref="F39:H53"/>
-    <mergeCell ref="I33:N36"/>
-    <mergeCell ref="B21:C36"/>
-    <mergeCell ref="D21:E36"/>
-    <mergeCell ref="F21:H36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="I21:N24"/>
-    <mergeCell ref="I25:N28"/>
-    <mergeCell ref="I29:N32"/>
     <mergeCell ref="B2:N4"/>
     <mergeCell ref="I8:N11"/>
     <mergeCell ref="I12:N15"/>
@@ -1407,6 +1396,17 @@
     <mergeCell ref="B8:C19"/>
     <mergeCell ref="D8:E19"/>
     <mergeCell ref="F8:H19"/>
+    <mergeCell ref="B39:C53"/>
+    <mergeCell ref="D39:E53"/>
+    <mergeCell ref="F39:H53"/>
+    <mergeCell ref="I33:N36"/>
+    <mergeCell ref="B21:C36"/>
+    <mergeCell ref="D21:E36"/>
+    <mergeCell ref="F21:H36"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="I21:N24"/>
+    <mergeCell ref="I25:N28"/>
+    <mergeCell ref="I29:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1428,461 +1428,474 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B22:D26"/>
+    <mergeCell ref="E22:F26"/>
+    <mergeCell ref="G22:I26"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="B7:D11"/>
+    <mergeCell ref="E7:F11"/>
+    <mergeCell ref="B17:D21"/>
+    <mergeCell ref="E17:F21"/>
+    <mergeCell ref="G17:I21"/>
     <mergeCell ref="B32:D36"/>
     <mergeCell ref="E32:F36"/>
     <mergeCell ref="G32:I36"/>
@@ -1899,19 +1912,6 @@
     <mergeCell ref="J17:K21"/>
     <mergeCell ref="J22:K26"/>
     <mergeCell ref="J27:K31"/>
-    <mergeCell ref="B22:D26"/>
-    <mergeCell ref="E22:F26"/>
-    <mergeCell ref="G22:I26"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="B7:D11"/>
-    <mergeCell ref="E7:F11"/>
-    <mergeCell ref="B17:D21"/>
-    <mergeCell ref="E17:F21"/>
-    <mergeCell ref="G17:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ante Proyecto/Tesis indicador de versiones.xlsx
+++ b/Ante Proyecto/Tesis indicador de versiones.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>TABLA DE ORGANIZACIÓN DE INFORMACION DE TESIS</t>
   </si>
@@ -282,14 +282,26 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,18 +310,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -664,104 +664,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="3" t="s">
@@ -777,14 +777,14 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="3"/>
@@ -794,12 +794,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3"/>
@@ -809,12 +809,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="3"/>
@@ -824,12 +824,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="3"/>
@@ -956,98 +956,98 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27.75">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1058,13 +1058,13 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1073,13 +1073,13 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1088,13 +1088,13 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1103,13 +1103,13 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1120,13 +1120,13 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1135,13 +1135,13 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1150,13 +1150,13 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1165,13 +1165,13 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="3" t="s">
         <v>18</v>
       </c>
@@ -1182,13 +1182,13 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1197,13 +1197,13 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1212,13 +1212,13 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1227,163 +1227,201 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="2:14" ht="26.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="39" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="B39:C53"/>
+    <mergeCell ref="D39:E53"/>
+    <mergeCell ref="F39:H53"/>
+    <mergeCell ref="I33:N36"/>
+    <mergeCell ref="B21:C36"/>
+    <mergeCell ref="D21:E36"/>
+    <mergeCell ref="F21:H36"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="I21:N24"/>
+    <mergeCell ref="I25:N28"/>
+    <mergeCell ref="I29:N32"/>
+    <mergeCell ref="I50:N53"/>
     <mergeCell ref="B2:N4"/>
     <mergeCell ref="I8:N11"/>
     <mergeCell ref="I12:N15"/>
@@ -1396,17 +1434,6 @@
     <mergeCell ref="B8:C19"/>
     <mergeCell ref="D8:E19"/>
     <mergeCell ref="F8:H19"/>
-    <mergeCell ref="B39:C53"/>
-    <mergeCell ref="D39:E53"/>
-    <mergeCell ref="F39:H53"/>
-    <mergeCell ref="I33:N36"/>
-    <mergeCell ref="B21:C36"/>
-    <mergeCell ref="D21:E36"/>
-    <mergeCell ref="F21:H36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="I21:N24"/>
-    <mergeCell ref="I25:N28"/>
-    <mergeCell ref="I29:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1428,62 +1455,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11" t="s">
@@ -1883,19 +1910,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B22:D26"/>
-    <mergeCell ref="E22:F26"/>
-    <mergeCell ref="G22:I26"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="B7:D11"/>
-    <mergeCell ref="E7:F11"/>
-    <mergeCell ref="B17:D21"/>
-    <mergeCell ref="E17:F21"/>
-    <mergeCell ref="G17:I21"/>
     <mergeCell ref="B32:D36"/>
     <mergeCell ref="E32:F36"/>
     <mergeCell ref="G32:I36"/>
@@ -1912,6 +1926,19 @@
     <mergeCell ref="J17:K21"/>
     <mergeCell ref="J22:K26"/>
     <mergeCell ref="J27:K31"/>
+    <mergeCell ref="B22:D26"/>
+    <mergeCell ref="E22:F26"/>
+    <mergeCell ref="G22:I26"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="B7:D11"/>
+    <mergeCell ref="E7:F11"/>
+    <mergeCell ref="B17:D21"/>
+    <mergeCell ref="E17:F21"/>
+    <mergeCell ref="G17:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
